--- a/fake_data2.xlsx
+++ b/fake_data2.xlsx
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
